--- a/CMMI/PP/Matriz de Comunicaciones/MBAWA_001_MatrizDeComunicación_001.xlsx
+++ b/CMMI/PP/Matriz de Comunicaciones/MBAWA_001_MatrizDeComunicación_001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Actividad 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\ITI 901\Administración de Proyectos de TI II\1er Parcial\Actividad 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5085" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="99">
   <si>
     <t>Matriz de comunicación</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Semana</t>
   </si>
   <si>
-    <t>Unico</t>
-  </si>
-  <si>
     <t>mes</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t xml:space="preserve">Administrador de la configuración </t>
   </si>
   <si>
-    <t>Miguel Angel Perez Diaz</t>
-  </si>
-  <si>
     <t>Simbología</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Definición Ciclo de vida de software</t>
   </si>
   <si>
-    <t>Definición de Politicas</t>
-  </si>
-  <si>
     <t>Diccionario WBS</t>
   </si>
   <si>
@@ -301,12 +292,6 @@
     <t>Erik Alejandro Palomo Briones</t>
   </si>
   <si>
-    <t>Asignacion a los dearrolladores de software</t>
-  </si>
-  <si>
-    <t>Validación y Verificación  de analisis</t>
-  </si>
-  <si>
     <t>Pruebas de modulo de Salidas</t>
   </si>
   <si>
@@ -314,6 +299,30 @@
   </si>
   <si>
     <t>Juana Nelly Arriaga  Rivera</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>MBautrocristales/AP/blob/master/CMMI/PP/Matriz%20de%20Comunicaciones/MBAWA_001_MatrizDeComunicaci%C3%B3n_001.xlsx</t>
+  </si>
+  <si>
+    <t>Único</t>
+  </si>
+  <si>
+    <t>Asignación a los desarrolladores de software</t>
+  </si>
+  <si>
+    <t>Validación y Verificación  de análisis</t>
+  </si>
+  <si>
+    <t>Definición de Políticas</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Pérez Díaz</t>
+  </si>
+  <si>
+    <t>Aldo Omar Guajardo Chávez</t>
   </si>
 </sst>
 </file>
@@ -973,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,10 +1030,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1032,10 +1041,10 @@
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1043,7 +1052,7 @@
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="19">
         <v>42511</v>
@@ -1054,29 +1063,33 @@
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
@@ -1090,7 +1103,7 @@
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="6"/>
@@ -1099,10 +1112,10 @@
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1110,7 +1123,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="19">
         <v>42511</v>
@@ -1142,7 +1155,7 @@
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="5"/>
@@ -1151,10 +1164,10 @@
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1162,7 +1175,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="19">
         <v>42511</v>
@@ -1173,7 +1186,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="19">
         <v>42511</v>
@@ -1184,7 +1197,7 @@
     <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="19">
         <v>42511</v>
@@ -1202,7 +1215,7 @@
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -1211,16 +1224,16 @@
     <row r="29" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1263,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,27 +1309,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="19">
         <v>42511</v>
@@ -1326,27 +1339,31 @@
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
@@ -1364,7 +1381,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1372,16 +1389,16 @@
     </row>
     <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1452,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,142 +1485,142 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="U1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AO1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -1614,154 +1631,154 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -1769,7 +1786,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -1804,10 +1821,10 @@
       <c r="AO3" s="18"/>
       <c r="AP3" s="18"/>
       <c r="AQ3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS3" s="18"/>
       <c r="AT3" s="18"/>
@@ -1816,210 +1833,210 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP4" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
@@ -2044,110 +2061,110 @@
       <c r="AO5" s="18"/>
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" s="18"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC6" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE6" s="18"/>
       <c r="AF6" s="18"/>
@@ -2162,597 +2179,597 @@
       <c r="AO6" s="18"/>
       <c r="AP6" s="18"/>
       <c r="AQ6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV6" s="18"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE7" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF7" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG7" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV7" s="18"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV8" s="18"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV9" s="18"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" s="18"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="28"/>
     </row>
@@ -2761,7 +2778,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2769,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2777,39 +2794,39 @@
         <v>11</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
